--- a/ONCHO/OEM/Guinea Conakry/2023/gn_oncho_oem_202310_1_site.xlsx
+++ b/ONCHO/OEM/Guinea Conakry/2023/gn_oncho_oem_202310_1_site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\OEM\Guinea Conakry\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92389CEC-DFF0-4F5F-B2DE-EACB0C154D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8632D81-A987-47DF-8218-B6D3A3244D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="300">
   <si>
     <t>type</t>
   </si>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>select_one village_list</t>
-  </si>
-  <si>
-    <t>village_list = ${c_cluster_name}</t>
   </si>
   <si>
     <t>Fonctionne mieux à l'extérieur des bâtiments</t>
@@ -1531,7 +1528,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1560,10 +1557,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>175</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>176</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>2</v>
@@ -1572,7 +1569,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>4</v>
@@ -1590,7 +1587,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="27" customFormat="1" ht="47.25">
@@ -1598,20 +1595,20 @@
         <v>14</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>201</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>202</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>203</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>204</v>
       </c>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
@@ -1629,7 +1626,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -1646,10 +1643,10 @@
         <v>50</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -1662,7 +1659,7 @@
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="27" customFormat="1" ht="63">
@@ -1673,7 +1670,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="29"/>
@@ -1686,7 +1683,7 @@
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="50" customFormat="1" ht="63">
@@ -1694,15 +1691,15 @@
         <v>25</v>
       </c>
       <c r="B6" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="49" t="s">
         <v>267</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>268</v>
       </c>
       <c r="E6" s="51"/>
       <c r="G6" s="51"/>
       <c r="H6" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="51" t="s">
@@ -1710,7 +1707,7 @@
       </c>
       <c r="K6" s="51"/>
       <c r="L6" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="50" customFormat="1" ht="63">
@@ -1718,20 +1715,20 @@
         <v>9</v>
       </c>
       <c r="B7" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>270</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>271</v>
       </c>
       <c r="E7" s="51"/>
       <c r="F7" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="G7" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="49" t="s">
-        <v>273</v>
-      </c>
       <c r="H7" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I7" s="51"/>
       <c r="J7" s="51" t="s">
@@ -1739,7 +1736,7 @@
       </c>
       <c r="K7" s="51"/>
       <c r="L7" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1750,24 +1747,24 @@
         <v>18</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="27" customFormat="1" ht="47.25">
+    <row r="9" spans="1:13" s="27" customFormat="1" ht="31.5">
       <c r="A9" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="29"/>
@@ -1779,9 +1776,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="29"/>
-      <c r="L9" s="30" t="s">
-        <v>113</v>
-      </c>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:13" s="27" customFormat="1" ht="31.5">
       <c r="A10" s="27" t="s">
@@ -1791,7 +1786,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J10" s="29" t="s">
         <v>10</v>
@@ -1807,10 +1802,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H12" s="31"/>
       <c r="J12" s="29"/>
@@ -1825,10 +1820,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J14" s="29"/>
     </row>
@@ -1840,7 +1835,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J15" s="29" t="s">
         <v>10</v>
@@ -1851,10 +1846,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J16" s="29" t="s">
         <v>10</v>
@@ -1865,10 +1860,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J17" s="29" t="s">
         <v>10</v>
@@ -1879,13 +1874,13 @@
         <v>21</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J18" s="29" t="s">
         <v>10</v>
@@ -1896,19 +1891,19 @@
         <v>9</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>10</v>
@@ -1919,10 +1914,10 @@
         <v>23</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>24</v>
@@ -1939,7 +1934,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1950,7 +1945,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D23" s="32"/>
       <c r="J23" s="35"/>
@@ -1960,7 +1955,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D24" s="32"/>
       <c r="J24" s="35"/>
@@ -2110,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>32</v>
@@ -2125,13 +2120,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="10"/>
@@ -2140,39 +2135,39 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>221</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>222</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>224</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>225</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>227</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="9"/>
@@ -2189,10 +2184,10 @@
         <v>33</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="9"/>
@@ -2202,10 +2197,10 @@
         <v>33</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="9"/>
@@ -2222,7 +2217,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>35</v>
@@ -2235,7 +2230,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>36</v>
@@ -2248,7 +2243,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>37</v>
@@ -2261,7 +2256,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>38</v>
@@ -2274,7 +2269,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>39</v>
@@ -2287,7 +2282,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>40</v>
@@ -2300,7 +2295,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>41</v>
@@ -2313,7 +2308,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>42</v>
@@ -2326,7 +2321,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>43</v>
@@ -2339,7 +2334,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>44</v>
@@ -2352,7 +2347,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>45</v>
@@ -2365,7 +2360,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>46</v>
@@ -2385,10 +2380,10 @@
         <v>32</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
@@ -2411,10 +2406,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="40"/>
@@ -2424,10 +2419,10 @@
         <v>32</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="40"/>
@@ -2444,13 +2439,13 @@
         <v>51</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E29" s="17"/>
     </row>
@@ -2459,13 +2454,13 @@
         <v>51</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E30" s="17"/>
     </row>
@@ -2474,13 +2469,13 @@
         <v>51</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E31" s="17"/>
     </row>
@@ -2489,13 +2484,13 @@
         <v>51</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E32" s="17"/>
     </row>
@@ -2504,13 +2499,13 @@
         <v>51</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E33" s="17"/>
     </row>
@@ -2564,13 +2559,13 @@
         <v>51</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E37" s="17"/>
     </row>
@@ -2579,13 +2574,13 @@
         <v>51</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E38" s="17"/>
     </row>
@@ -2594,13 +2589,13 @@
         <v>51</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E39" s="17"/>
     </row>
@@ -2609,13 +2604,13 @@
         <v>51</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E40" s="17"/>
     </row>
@@ -2624,13 +2619,13 @@
         <v>51</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E41" s="17"/>
     </row>
@@ -2639,13 +2634,13 @@
         <v>51</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E42" s="17"/>
     </row>
@@ -2654,13 +2649,13 @@
         <v>51</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E43" s="17"/>
     </row>
@@ -2669,13 +2664,13 @@
         <v>51</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E44" s="17"/>
     </row>
@@ -2684,13 +2679,13 @@
         <v>51</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E45" s="17"/>
     </row>
@@ -2713,7 +2708,7 @@
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2728,7 +2723,7 @@
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2743,7 +2738,7 @@
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2758,7 +2753,7 @@
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2773,7 +2768,7 @@
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2781,10 +2776,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17" t="s">
@@ -2863,7 +2858,7 @@
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2871,14 +2866,14 @@
         <v>52</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2886,14 +2881,14 @@
         <v>52</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2901,14 +2896,14 @@
         <v>52</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2916,14 +2911,14 @@
         <v>52</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2931,14 +2926,14 @@
         <v>52</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2953,7 +2948,7 @@
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2961,14 +2956,14 @@
         <v>52</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2976,14 +2971,14 @@
         <v>52</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2991,10 +2986,10 @@
         <v>52</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="17" t="s">
@@ -3021,10 +3016,10 @@
         <v>52</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="17" t="s">
@@ -3073,7 +3068,7 @@
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3088,7 +3083,7 @@
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3103,7 +3098,7 @@
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3111,14 +3106,14 @@
         <v>52</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3133,7 +3128,7 @@
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3148,7 +3143,7 @@
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3163,7 +3158,7 @@
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3171,14 +3166,14 @@
         <v>52</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3193,7 +3188,7 @@
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3201,14 +3196,14 @@
         <v>52</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3223,7 +3218,7 @@
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3238,7 +3233,7 @@
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3253,7 +3248,7 @@
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3261,14 +3256,14 @@
         <v>52</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3283,7 +3278,7 @@
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3291,14 +3286,14 @@
         <v>52</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3306,14 +3301,14 @@
         <v>52</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3321,14 +3316,14 @@
         <v>52</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3336,14 +3331,14 @@
         <v>52</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3358,7 +3353,7 @@
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3373,7 +3368,7 @@
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3441,10 +3436,10 @@
         <v>52</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="17" t="s">
@@ -3478,7 +3473,7 @@
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3493,7 +3488,7 @@
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3508,7 +3503,7 @@
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3523,7 +3518,7 @@
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3538,7 +3533,7 @@
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3553,7 +3548,7 @@
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3568,7 +3563,7 @@
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3583,7 +3578,7 @@
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3598,7 +3593,7 @@
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3613,7 +3608,7 @@
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3628,7 +3623,7 @@
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3643,7 +3638,7 @@
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3658,7 +3653,7 @@
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3673,7 +3668,7 @@
       </c>
       <c r="D111" s="17"/>
       <c r="E111" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3688,7 +3683,7 @@
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3696,14 +3691,14 @@
         <v>52</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3711,14 +3706,14 @@
         <v>52</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3733,7 +3728,7 @@
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3748,7 +3743,7 @@
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3763,7 +3758,7 @@
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3778,7 +3773,7 @@
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3793,7 +3788,7 @@
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3801,14 +3796,14 @@
         <v>52</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D120" s="17"/>
       <c r="E120" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3823,7 +3818,7 @@
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3831,14 +3826,14 @@
         <v>52</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D122" s="17"/>
       <c r="E122" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3846,14 +3841,14 @@
         <v>52</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D123" s="17"/>
       <c r="E123" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3861,14 +3856,14 @@
         <v>52</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D124" s="17"/>
       <c r="E124" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3883,7 +3878,7 @@
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3891,13 +3886,13 @@
         <v>52</v>
       </c>
       <c r="B126" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C126" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3905,10 +3900,10 @@
         <v>52</v>
       </c>
       <c r="B127" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C127" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E127" t="s">
         <v>54</v>
@@ -3919,13 +3914,13 @@
         <v>52</v>
       </c>
       <c r="B128" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C128" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E128" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3933,10 +3928,10 @@
         <v>52</v>
       </c>
       <c r="B129" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C129" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E129" t="s">
         <v>55</v>
@@ -3947,13 +3942,13 @@
         <v>52</v>
       </c>
       <c r="B130" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C130" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E130" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3961,13 +3956,13 @@
         <v>52</v>
       </c>
       <c r="B131" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C131" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E131" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3975,13 +3970,13 @@
         <v>52</v>
       </c>
       <c r="B132" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C132" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E132" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3989,13 +3984,13 @@
         <v>52</v>
       </c>
       <c r="B133" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C133" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E133" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4003,13 +3998,13 @@
         <v>52</v>
       </c>
       <c r="B134" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C134" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E134" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4017,10 +4012,10 @@
         <v>52</v>
       </c>
       <c r="B135" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C135" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E135" t="s">
         <v>56</v>
@@ -4031,13 +4026,13 @@
         <v>52</v>
       </c>
       <c r="B136" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C136" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E136" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4045,13 +4040,13 @@
         <v>52</v>
       </c>
       <c r="B137" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C137" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E137" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4059,13 +4054,13 @@
         <v>52</v>
       </c>
       <c r="B138" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C138" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E138" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4073,13 +4068,13 @@
         <v>52</v>
       </c>
       <c r="B139" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C139" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4087,13 +4082,13 @@
         <v>52</v>
       </c>
       <c r="B140" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C140" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E140" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4101,13 +4096,13 @@
         <v>52</v>
       </c>
       <c r="B141" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C141" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E141" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4115,634 +4110,634 @@
         <v>52</v>
       </c>
       <c r="B142" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C142" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E142" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B144" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C144" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B145" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C145" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B146" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C146" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B147" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C147" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B148" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C148" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B149" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C149" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B150" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C150" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B151" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C151" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B152" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C152" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B153" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C153" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B154" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C154" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B155" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C155" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B156" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C156" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B157" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C157" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C158" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B159" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C159" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B160" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C160" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B161" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C161" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B162" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C162" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B163" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C163" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B164" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C164" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B165" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C165" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B166" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C166" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B168" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C168" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C169" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B170" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C170" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C171" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B172" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C172" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B173" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C173" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C174" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C175" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C176" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C177" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C178" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C179" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C180" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B181" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C181" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B182" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C182" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B183" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C183" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B184" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C184" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B185" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C185" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B186" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C186" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B187" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C187" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B188" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C188" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B189" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C189" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B190" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C190" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B191" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C191" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B192" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C192" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B193" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C193" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B194" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C194" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B195" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C195" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B196" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C196" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B197" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C197" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B198" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C198" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B199" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C199" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B200" t="s">
         <v>106</v>
@@ -4753,68 +4748,68 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B202" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C202" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B203" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C203" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B204" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C204" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B205" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C205" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B206" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C206" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4857,18 +4852,18 @@
         <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>229</v>
-      </c>
       <c r="C2" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>10</v>
@@ -4905,37 +4900,37 @@
   <sheetData>
     <row r="1" spans="1:15" s="22" customFormat="1" ht="105">
       <c r="A1" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="K1" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="N1" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>209</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4970,7 +4965,7 @@
         <v>54</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5048,7 +5043,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E5" s="17">
         <v>11.178223900000001</v>
@@ -5114,7 +5109,7 @@
         <v>55</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -5154,7 +5149,7 @@
         <v>54</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E9" s="17">
         <v>11.030963</v>
@@ -5166,7 +5161,7 @@
         <v>55</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -5284,7 +5279,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E14" s="17">
         <v>10.741151199999999</v>
@@ -5348,7 +5343,7 @@
         <v>56</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -5362,7 +5357,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E17" s="17">
         <v>10.7287771</v>

--- a/ONCHO/OEM/Guinea Conakry/2023/gn_oncho_oem_202310_1_site.xlsx
+++ b/ONCHO/OEM/Guinea Conakry/2023/gn_oncho_oem_202310_1_site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\OEM\Guinea Conakry\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8632D81-A987-47DF-8218-B6D3A3244D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567D35E2-EB64-49AE-9294-CE67FB23D052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="301">
   <si>
     <t>type</t>
   </si>
@@ -716,12 +716,6 @@
     <t>Entrer Manuellement le code (En cas de problème avec votre scanner de code QR)</t>
   </si>
   <si>
-    <t>(2023 Oct) oncho OEM - 1. Formulaire Site V2</t>
-  </si>
-  <si>
-    <t>gn_oncho_oem_202310_1_site_v2</t>
-  </si>
-  <si>
     <t>Boffa</t>
   </si>
   <si>
@@ -933,6 +927,15 @@
   </si>
   <si>
     <t>select_one river_list</t>
+  </si>
+  <si>
+    <t>Koba</t>
+  </si>
+  <si>
+    <t>(2023 Oct) oncho OEM - 1. Formulaire Site V3</t>
+  </si>
+  <si>
+    <t>gn_oncho_oem_202310_1_site_v3</t>
   </si>
 </sst>
 </file>
@@ -1524,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
@@ -1691,15 +1694,15 @@
         <v>25</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E6" s="51"/>
       <c r="G6" s="51"/>
       <c r="H6" s="51" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="51" t="s">
@@ -1715,20 +1718,20 @@
         <v>9</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E7" s="51"/>
       <c r="F7" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I7" s="51"/>
       <c r="J7" s="51" t="s">
@@ -1758,7 +1761,7 @@
     </row>
     <row r="9" spans="1:13" s="27" customFormat="1" ht="31.5">
       <c r="A9" s="33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>171</v>
@@ -2080,11 +2083,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G206"/>
+  <dimension ref="A1:G208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2380,10 +2383,10 @@
         <v>32</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
@@ -2406,10 +2409,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="40"/>
@@ -2419,10 +2422,10 @@
         <v>32</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="40"/>
@@ -2439,13 +2442,13 @@
         <v>51</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E29" s="17"/>
     </row>
@@ -2454,13 +2457,13 @@
         <v>51</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E30" s="17"/>
     </row>
@@ -2469,13 +2472,13 @@
         <v>51</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E31" s="17"/>
     </row>
@@ -2484,13 +2487,13 @@
         <v>51</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E32" s="17"/>
     </row>
@@ -2499,13 +2502,13 @@
         <v>51</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E33" s="17"/>
     </row>
@@ -2559,13 +2562,13 @@
         <v>51</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E37" s="17"/>
     </row>
@@ -2574,13 +2577,13 @@
         <v>51</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E38" s="17"/>
     </row>
@@ -2589,13 +2592,13 @@
         <v>51</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E39" s="17"/>
     </row>
@@ -2604,13 +2607,13 @@
         <v>51</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E40" s="17"/>
     </row>
@@ -2619,13 +2622,13 @@
         <v>51</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E41" s="17"/>
     </row>
@@ -2634,13 +2637,13 @@
         <v>51</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E42" s="17"/>
     </row>
@@ -2649,13 +2652,13 @@
         <v>51</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E43" s="17"/>
     </row>
@@ -2664,13 +2667,13 @@
         <v>51</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E44" s="17"/>
     </row>
@@ -2679,51 +2682,51 @@
         <v>51</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E45" s="17"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="46"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
+      <c r="A46" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="C46" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>53</v>
+      </c>
       <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17" t="s">
-        <v>242</v>
-      </c>
+      <c r="A47" s="46"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="17"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="46" t="s">
         <v>52</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2731,14 +2734,14 @@
         <v>52</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2746,14 +2749,14 @@
         <v>52</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2761,14 +2764,14 @@
         <v>52</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2776,14 +2779,14 @@
         <v>52</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2791,10 +2794,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17" t="s">
@@ -2806,10 +2809,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17" t="s">
@@ -2821,10 +2824,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17" t="s">
@@ -2836,10 +2839,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="17" t="s">
@@ -2851,14 +2854,14 @@
         <v>52</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="17" t="s">
-        <v>232</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2866,14 +2869,14 @@
         <v>52</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>246</v>
+        <v>59</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>246</v>
+        <v>59</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2881,14 +2884,14 @@
         <v>52</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2896,14 +2899,14 @@
         <v>52</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2911,14 +2914,14 @@
         <v>52</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2926,14 +2929,14 @@
         <v>52</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2941,14 +2944,14 @@
         <v>52</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2956,14 +2959,14 @@
         <v>52</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>251</v>
+        <v>104</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>251</v>
+        <v>104</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2971,14 +2974,14 @@
         <v>52</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2986,14 +2989,14 @@
         <v>52</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="17" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3001,10 +3004,10 @@
         <v>52</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="17" t="s">
@@ -3016,10 +3019,10 @@
         <v>52</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="17" t="s">
@@ -3031,10 +3034,10 @@
         <v>52</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17" t="s">
@@ -3046,10 +3049,10 @@
         <v>52</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17" t="s">
@@ -3061,14 +3064,14 @@
         <v>52</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="17" t="s">
-        <v>237</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3076,14 +3079,14 @@
         <v>52</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3091,14 +3094,14 @@
         <v>52</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3106,14 +3109,14 @@
         <v>52</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>253</v>
+        <v>92</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>253</v>
+        <v>92</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3121,14 +3124,14 @@
         <v>52</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3136,14 +3139,14 @@
         <v>52</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3151,14 +3154,14 @@
         <v>52</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3166,14 +3169,14 @@
         <v>52</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3181,14 +3184,14 @@
         <v>52</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3196,14 +3199,14 @@
         <v>52</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3211,14 +3214,14 @@
         <v>52</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3226,14 +3229,14 @@
         <v>52</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3241,14 +3244,14 @@
         <v>52</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3256,14 +3259,14 @@
         <v>52</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3271,14 +3274,14 @@
         <v>52</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>93</v>
+        <v>254</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>93</v>
+        <v>254</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3286,14 +3289,14 @@
         <v>52</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3301,14 +3304,14 @@
         <v>52</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3316,14 +3319,14 @@
         <v>52</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3331,14 +3334,14 @@
         <v>52</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3346,14 +3349,14 @@
         <v>52</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3361,14 +3364,14 @@
         <v>52</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3376,14 +3379,14 @@
         <v>52</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D92" s="17"/>
       <c r="E92" s="17" t="s">
-        <v>56</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3391,10 +3394,10 @@
         <v>52</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="17" t="s">
@@ -3406,10 +3409,10 @@
         <v>52</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="17" t="s">
@@ -3421,10 +3424,10 @@
         <v>52</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="17" t="s">
@@ -3436,10 +3439,10 @@
         <v>52</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="17" t="s">
@@ -3451,10 +3454,10 @@
         <v>52</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="17" t="s">
@@ -3466,14 +3469,14 @@
         <v>52</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="17" t="s">
-        <v>243</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3481,14 +3484,14 @@
         <v>52</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3496,14 +3499,14 @@
         <v>52</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3511,14 +3514,14 @@
         <v>52</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3526,14 +3529,14 @@
         <v>52</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3541,14 +3544,14 @@
         <v>52</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3556,14 +3559,14 @@
         <v>52</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3571,14 +3574,14 @@
         <v>52</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3586,14 +3589,14 @@
         <v>52</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3601,14 +3604,14 @@
         <v>52</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3616,14 +3619,14 @@
         <v>52</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3631,14 +3634,14 @@
         <v>52</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="17" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3646,14 +3649,14 @@
         <v>52</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3661,14 +3664,14 @@
         <v>52</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D111" s="17"/>
       <c r="E111" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3676,14 +3679,14 @@
         <v>52</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3691,14 +3694,14 @@
         <v>52</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3706,14 +3709,14 @@
         <v>52</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3721,14 +3724,14 @@
         <v>52</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3736,14 +3739,14 @@
         <v>52</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3751,14 +3754,14 @@
         <v>52</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="17" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3766,14 +3769,14 @@
         <v>52</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3781,14 +3784,14 @@
         <v>52</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="17" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3796,14 +3799,14 @@
         <v>52</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>261</v>
+        <v>101</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>261</v>
+        <v>101</v>
       </c>
       <c r="D120" s="17"/>
       <c r="E120" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3811,14 +3814,14 @@
         <v>52</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="17" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3826,14 +3829,14 @@
         <v>52</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>262</v>
+        <v>57</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>262</v>
+        <v>57</v>
       </c>
       <c r="D122" s="17"/>
       <c r="E122" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3841,14 +3844,14 @@
         <v>52</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D123" s="17"/>
       <c r="E123" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3856,14 +3859,14 @@
         <v>52</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D124" s="17"/>
       <c r="E124" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3871,28 +3874,29 @@
         <v>52</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B126" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="C126" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="E126" t="s">
-        <v>242</v>
+      <c r="B126" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3900,13 +3904,13 @@
         <v>52</v>
       </c>
       <c r="B127" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C127" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E127" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3914,13 +3918,13 @@
         <v>52</v>
       </c>
       <c r="B128" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C128" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E128" t="s">
-        <v>232</v>
+        <v>54</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3928,13 +3932,13 @@
         <v>52</v>
       </c>
       <c r="B129" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C129" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E129" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3942,13 +3946,13 @@
         <v>52</v>
       </c>
       <c r="B130" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C130" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E130" t="s">
-        <v>237</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3956,13 +3960,13 @@
         <v>52</v>
       </c>
       <c r="B131" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C131" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E131" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3970,13 +3974,13 @@
         <v>52</v>
       </c>
       <c r="B132" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C132" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E132" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3984,13 +3988,13 @@
         <v>52</v>
       </c>
       <c r="B133" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C133" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E133" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3998,13 +4002,13 @@
         <v>52</v>
       </c>
       <c r="B134" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C134" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E134" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4012,13 +4016,13 @@
         <v>52</v>
       </c>
       <c r="B135" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C135" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E135" t="s">
-        <v>56</v>
+        <v>233</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4026,13 +4030,13 @@
         <v>52</v>
       </c>
       <c r="B136" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C136" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E136" t="s">
-        <v>243</v>
+        <v>56</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4040,13 +4044,13 @@
         <v>52</v>
       </c>
       <c r="B137" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C137" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E137" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4054,13 +4058,13 @@
         <v>52</v>
       </c>
       <c r="B138" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C138" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E138" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4068,13 +4072,13 @@
         <v>52</v>
       </c>
       <c r="B139" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C139" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E139" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4082,13 +4086,13 @@
         <v>52</v>
       </c>
       <c r="B140" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C140" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E140" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4096,13 +4100,13 @@
         <v>52</v>
       </c>
       <c r="B141" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C141" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E141" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4110,35 +4114,41 @@
         <v>52</v>
       </c>
       <c r="B142" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C142" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E142" t="s">
-        <v>241</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B143" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="C143" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="E143" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B144" t="s">
-        <v>273</v>
-      </c>
-      <c r="C144" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B145" t="s">
-        <v>274</v>
-      </c>
-      <c r="C145" t="s">
-        <v>274</v>
+      <c r="A144" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B144" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="C144" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="E144" s="47" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4146,10 +4156,10 @@
         <v>177</v>
       </c>
       <c r="B146" t="s">
-        <v>134</v>
+        <v>271</v>
       </c>
       <c r="C146" t="s">
-        <v>134</v>
+        <v>271</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4157,10 +4167,10 @@
         <v>177</v>
       </c>
       <c r="B147" t="s">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="C147" t="s">
-        <v>135</v>
+        <v>272</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4168,10 +4178,10 @@
         <v>177</v>
       </c>
       <c r="B148" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C148" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4179,10 +4189,10 @@
         <v>177</v>
       </c>
       <c r="B149" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C149" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4190,10 +4200,10 @@
         <v>177</v>
       </c>
       <c r="B150" t="s">
-        <v>275</v>
+        <v>136</v>
       </c>
       <c r="C150" t="s">
-        <v>275</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4201,10 +4211,10 @@
         <v>177</v>
       </c>
       <c r="B151" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C151" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4212,10 +4222,10 @@
         <v>177</v>
       </c>
       <c r="B152" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C152" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4223,10 +4233,10 @@
         <v>177</v>
       </c>
       <c r="B153" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C153" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4234,10 +4244,10 @@
         <v>177</v>
       </c>
       <c r="B154" t="s">
-        <v>140</v>
+        <v>274</v>
       </c>
       <c r="C154" t="s">
-        <v>140</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4245,10 +4255,10 @@
         <v>177</v>
       </c>
       <c r="B155" t="s">
-        <v>277</v>
+        <v>139</v>
       </c>
       <c r="C155" t="s">
-        <v>277</v>
+        <v>139</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4256,10 +4266,10 @@
         <v>177</v>
       </c>
       <c r="B156" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C156" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4267,10 +4277,10 @@
         <v>177</v>
       </c>
       <c r="B157" t="s">
-        <v>142</v>
+        <v>275</v>
       </c>
       <c r="C157" t="s">
-        <v>142</v>
+        <v>275</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4278,10 +4288,10 @@
         <v>177</v>
       </c>
       <c r="B158" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C158" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4289,10 +4299,10 @@
         <v>177</v>
       </c>
       <c r="B159" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C159" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4300,10 +4310,10 @@
         <v>177</v>
       </c>
       <c r="B160" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C160" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4311,10 +4321,10 @@
         <v>177</v>
       </c>
       <c r="B161" t="s">
-        <v>278</v>
+        <v>144</v>
       </c>
       <c r="C161" t="s">
-        <v>278</v>
+        <v>144</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4322,10 +4332,10 @@
         <v>177</v>
       </c>
       <c r="B162" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="C162" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4333,10 +4343,10 @@
         <v>177</v>
       </c>
       <c r="B163" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C163" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4344,10 +4354,10 @@
         <v>177</v>
       </c>
       <c r="B164" t="s">
-        <v>146</v>
+        <v>277</v>
       </c>
       <c r="C164" t="s">
-        <v>146</v>
+        <v>277</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4355,10 +4365,10 @@
         <v>177</v>
       </c>
       <c r="B165" t="s">
-        <v>147</v>
+        <v>278</v>
       </c>
       <c r="C165" t="s">
-        <v>147</v>
+        <v>278</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4366,10 +4376,10 @@
         <v>177</v>
       </c>
       <c r="B166" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C166" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4377,10 +4387,10 @@
         <v>177</v>
       </c>
       <c r="B167" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C167" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4388,10 +4398,10 @@
         <v>177</v>
       </c>
       <c r="B168" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C168" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4399,10 +4409,10 @@
         <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>281</v>
+        <v>149</v>
       </c>
       <c r="C169" t="s">
-        <v>281</v>
+        <v>149</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4410,10 +4420,10 @@
         <v>177</v>
       </c>
       <c r="B170" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C170" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4421,10 +4431,10 @@
         <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="C171" t="s">
-        <v>152</v>
+        <v>279</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4432,10 +4442,10 @@
         <v>177</v>
       </c>
       <c r="B172" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C172" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4443,10 +4453,10 @@
         <v>177</v>
       </c>
       <c r="B173" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C173" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4454,10 +4464,10 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C174" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4465,10 +4475,10 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C175" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4476,10 +4486,10 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>282</v>
+        <v>155</v>
       </c>
       <c r="C176" t="s">
-        <v>282</v>
+        <v>155</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4487,10 +4497,10 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>283</v>
+        <v>156</v>
       </c>
       <c r="C177" t="s">
-        <v>283</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4498,10 +4508,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="C178" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4509,10 +4519,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>158</v>
+        <v>281</v>
       </c>
       <c r="C179" t="s">
-        <v>158</v>
+        <v>281</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4520,10 +4530,10 @@
         <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C180" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4531,10 +4541,10 @@
         <v>177</v>
       </c>
       <c r="B181" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C181" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4542,10 +4552,10 @@
         <v>177</v>
       </c>
       <c r="B182" t="s">
-        <v>284</v>
+        <v>159</v>
       </c>
       <c r="C182" t="s">
-        <v>284</v>
+        <v>159</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4553,10 +4563,10 @@
         <v>177</v>
       </c>
       <c r="B183" t="s">
-        <v>285</v>
+        <v>160</v>
       </c>
       <c r="C183" t="s">
-        <v>285</v>
+        <v>160</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4564,10 +4574,10 @@
         <v>177</v>
       </c>
       <c r="B184" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C184" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4575,10 +4585,10 @@
         <v>177</v>
       </c>
       <c r="B185" t="s">
-        <v>161</v>
+        <v>283</v>
       </c>
       <c r="C185" t="s">
-        <v>161</v>
+        <v>283</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4586,10 +4596,10 @@
         <v>177</v>
       </c>
       <c r="B186" t="s">
-        <v>162</v>
+        <v>284</v>
       </c>
       <c r="C186" t="s">
-        <v>162</v>
+        <v>284</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4597,10 +4607,10 @@
         <v>177</v>
       </c>
       <c r="B187" t="s">
-        <v>287</v>
+        <v>161</v>
       </c>
       <c r="C187" t="s">
-        <v>287</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4608,10 +4618,10 @@
         <v>177</v>
       </c>
       <c r="B188" t="s">
-        <v>288</v>
+        <v>162</v>
       </c>
       <c r="C188" t="s">
-        <v>288</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4619,10 +4629,10 @@
         <v>177</v>
       </c>
       <c r="B189" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C189" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4630,10 +4640,10 @@
         <v>177</v>
       </c>
       <c r="B190" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C190" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4641,10 +4651,10 @@
         <v>177</v>
       </c>
       <c r="B191" t="s">
-        <v>163</v>
+        <v>287</v>
       </c>
       <c r="C191" t="s">
-        <v>163</v>
+        <v>287</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4652,10 +4662,10 @@
         <v>177</v>
       </c>
       <c r="B192" t="s">
-        <v>164</v>
+        <v>288</v>
       </c>
       <c r="C192" t="s">
-        <v>164</v>
+        <v>288</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4663,10 +4673,10 @@
         <v>177</v>
       </c>
       <c r="B193" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C193" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4674,10 +4684,10 @@
         <v>177</v>
       </c>
       <c r="B194" t="s">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="C194" t="s">
-        <v>291</v>
+        <v>164</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4685,10 +4695,10 @@
         <v>177</v>
       </c>
       <c r="B195" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C195" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4696,10 +4706,10 @@
         <v>177</v>
       </c>
       <c r="B196" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C196" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4707,10 +4717,10 @@
         <v>177</v>
       </c>
       <c r="B197" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C197" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4718,10 +4728,10 @@
         <v>177</v>
       </c>
       <c r="B198" t="s">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c r="C198" t="s">
-        <v>168</v>
+        <v>290</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4729,10 +4739,10 @@
         <v>177</v>
       </c>
       <c r="B199" t="s">
-        <v>293</v>
+        <v>167</v>
       </c>
       <c r="C199" t="s">
-        <v>293</v>
+        <v>167</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4740,10 +4750,10 @@
         <v>177</v>
       </c>
       <c r="B200" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="C200" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4751,10 +4761,10 @@
         <v>177</v>
       </c>
       <c r="B201" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C201" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4762,10 +4772,10 @@
         <v>177</v>
       </c>
       <c r="B202" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="C202" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4773,10 +4783,10 @@
         <v>177</v>
       </c>
       <c r="B203" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C203" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4784,10 +4794,10 @@
         <v>177</v>
       </c>
       <c r="B204" t="s">
-        <v>296</v>
+        <v>170</v>
       </c>
       <c r="C204" t="s">
-        <v>296</v>
+        <v>170</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4795,10 +4805,10 @@
         <v>177</v>
       </c>
       <c r="B205" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C205" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4806,18 +4816,40 @@
         <v>177</v>
       </c>
       <c r="B206" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C206" t="s">
-        <v>298</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B207" t="s">
+        <v>295</v>
+      </c>
+      <c r="C207" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B208" t="s">
+        <v>296</v>
+      </c>
+      <c r="C208" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B144:C206">
-    <sortCondition ref="B144:B206"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B146:C208">
+    <sortCondition ref="B146:B208"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C144:C206">
+  <conditionalFormatting sqref="C146:C208">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4829,8 +4861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4857,10 +4889,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
-        <v>227</v>
+        <v>299</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>228</v>
+        <v>300</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>172</v>
